--- a/dados.xlsx
+++ b/dados.xlsx
@@ -12,60 +12,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>Codigo</t>
   </si>
   <si>
     <t>Vendedor</t>
   </si>
   <si>
-    <t>Valor Abertura</t>
+    <t>Fatura</t>
   </si>
   <si>
-    <t>Valor Vendido</t>
+    <t>Data</t>
   </si>
   <si>
-    <t>Total de Fecho</t>
+    <t>SubTotal</t>
   </si>
   <si>
-    <t>Data Abertura</t>
-  </si>
-  <si>
-    <t>Data Fecho</t>
-  </si>
-  <si>
-    <t>Estado do caixa</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>aTtn/mFrBp+zGlxCueSECHW5CIAh222Qx6uvsj344KA=</t>
-  </si>
-  <si>
-    <t>Administrador</t>
-  </si>
-  <si>
-    <t>400.0</t>
-  </si>
-  <si>
-    <t>89639.8</t>
-  </si>
-  <si>
-    <t>189316.8</t>
-  </si>
-  <si>
-    <t>2024-09-22 21:58:24</t>
-  </si>
-  <si>
-    <t>26/10/2024 05:059:57</t>
-  </si>
-  <si>
-    <t>close</t>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -129,21 +93,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="2.9453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="49.171875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.890625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="14.2734375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="13.74609375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="14.1640625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="19.66796875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="21.13671875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.88671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.87109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="6.81640625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="5.234375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="8.88671875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.56640625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -165,44 +126,6 @@
       <c r="F1" t="s" s="1">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="1">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="1">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s" s="1">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s" s="1">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s" s="1">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s" s="1">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s" s="1">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s" s="1">
-        <v>17</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -12,24 +12,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>Codigo</t>
   </si>
   <si>
     <t>Vendedor</t>
   </si>
   <si>
-    <t>Fatura</t>
+    <t>Valor Abertura</t>
   </si>
   <si>
-    <t>Data</t>
+    <t>Valor Vendido</t>
   </si>
   <si>
-    <t>SubTotal</t>
+    <t>Total de Fecho</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>Data Abertura</t>
+  </si>
+  <si>
+    <t>Data Fecho</t>
+  </si>
+  <si>
+    <t>Estado do caixa</t>
   </si>
 </sst>
 </file>
@@ -93,18 +102,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="2.9453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="9.87109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="6.81640625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="5.234375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="8.88671875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.56640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="7.2265625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.87109375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="14.2734375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="13.74609375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="14.1640625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="13.73828125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.0859375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.88671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -126,6 +138,15 @@
       <c r="F1" t="s" s="1">
         <v>5</v>
       </c>
+      <c r="G1" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="1">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
